--- a/4.Analysis/Data/raw/day2/phase_004/select_day2_phase_004.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_004/select_day2_phase_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t xml:space="preserve">USERID</t>
   </si>
@@ -155,123 +155,126 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_004_subj_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	590502391271391232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	落花殇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2023-11-16 15:36:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1小时23分57秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.181.10.215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此实验时间过长，过程过于枯燥，希望改进一些。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">了解人们对自己的了解程度。	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_004_subj_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	598907506583928832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	清尘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2023-11-16 19:26:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54分9秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221.192.179.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.三个月内</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_004_subj_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	598932304420667392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	哈哈哈55223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2023-11-16 10:51:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59分30秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.134.127.165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.一个月内</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不知道	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_004_subj_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	609032333906935808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	王得鱼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2023-11-18 21:40:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1小时19分10秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.232.18.249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试判断能力和记忆能力	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_004_subj_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	622124635634270208</t>
+  </si>
+  <si>
     <t xml:space="preserve">17</t>
   </si>
   <si>
-    <t xml:space="preserve">11.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	590502391271391232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	落花殇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-16 15:36:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时23分57秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.181.10.215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">此实验时间过长，过程过于枯燥，希望改进一些。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">了解人们对自己的了解程度。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	598907506583928832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	清尘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-16 19:26:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54分9秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221.192.179.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.三个月内</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	598932304420667392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	哈哈哈55223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-16 10:51:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59分30秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.134.127.165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.一个月内</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不知道	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	609032333906935808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	王得鱼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-18 21:40:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时19分10秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.232.18.249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试判断能力和记忆能力	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	622124635634270208</t>
-  </si>
-  <si>
     <t xml:space="preserve">	wahh</t>
   </si>
   <si>
@@ -320,9 +323,6 @@
     <t xml:space="preserve">	634785034254942208</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
     <t xml:space="preserve">	繁星点点</t>
   </si>
   <si>
@@ -420,6 +420,33 @@
   </si>
   <si>
     <t xml:space="preserve">phase_004_subj_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	637378161314627584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	干燥小狗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2023-11-19 11:44:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1小时25分17秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223.246.254.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.半年内</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不是很清楚	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_004_subj_11</t>
   </si>
   <si>
     <t xml:space="preserve">	718788150628974592</t>
@@ -1419,16 +1446,16 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -1437,7 +1464,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
@@ -1476,10 +1503,10 @@
         <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W7" t="s">
         <v>46</v>
@@ -1491,7 +1518,7 @@
         <v>48</v>
       </c>
       <c r="Z7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA7" t="n">
         <v>287</v>
@@ -1499,19 +1526,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -1520,7 +1547,7 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
         <v>35</v>
@@ -1562,7 +1589,7 @@
         <v>66</v>
       </c>
       <c r="V8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W8" t="s">
         <v>46</v>
@@ -1574,7 +1601,7 @@
         <v>48</v>
       </c>
       <c r="Z8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA8" t="n">
         <v>225</v>
@@ -1582,10 +1609,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
@@ -1941,7 +1968,7 @@
         <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
         <v>37</v>
@@ -1953,7 +1980,7 @@
         <v>38</v>
       </c>
       <c r="N13" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
         <v>40</v>
@@ -1974,7 +2001,7 @@
         <v>42</v>
       </c>
       <c r="U13" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="V13" t="s">
         <v>143</v>
@@ -1992,7 +2019,7 @@
         <v>144</v>
       </c>
       <c r="AA13" t="n">
-        <v>570</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14">
@@ -2024,19 +2051,19 @@
         <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
         <v>37</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="O14" t="s">
         <v>40</v>
@@ -2057,10 +2084,10 @@
         <v>42</v>
       </c>
       <c r="U14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="V14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="W14" t="s">
         <v>46</v>
@@ -2072,27 +2099,27 @@
         <v>48</v>
       </c>
       <c r="Z14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AA14" t="n">
-        <v>462</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" t="s">
         <v>156</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>157</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>158</v>
-      </c>
-      <c r="D15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" t="s">
-        <v>160</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
@@ -2101,7 +2128,7 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I15" t="s">
         <v>35</v>
@@ -2113,13 +2140,13 @@
         <v>37</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="M15" t="s">
         <v>37</v>
       </c>
       <c r="N15" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
         <v>40</v>
@@ -2140,10 +2167,10 @@
         <v>42</v>
       </c>
       <c r="U15" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="V15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2155,27 +2182,27 @@
         <v>48</v>
       </c>
       <c r="Z15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA15" t="n">
-        <v>117</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -2184,25 +2211,25 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I16" t="s">
         <v>35</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
         <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="M16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="O16" t="s">
         <v>40</v>
@@ -2223,7 +2250,7 @@
         <v>42</v>
       </c>
       <c r="U16" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="V16" t="s">
         <v>171</v>
@@ -2241,7 +2268,7 @@
         <v>172</v>
       </c>
       <c r="AA16" t="n">
-        <v>667</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17">
@@ -2273,19 +2300,19 @@
         <v>35</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
         <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="O17" t="s">
         <v>40</v>
@@ -2306,10 +2333,10 @@
         <v>42</v>
       </c>
       <c r="U17" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="V17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W17" t="s">
         <v>46</v>
@@ -2321,27 +2348,27 @@
         <v>48</v>
       </c>
       <c r="Z17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA17" t="n">
-        <v>401</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
@@ -2350,7 +2377,7 @@
         <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I18" t="s">
         <v>35</v>
@@ -2362,13 +2389,13 @@
         <v>37</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N18" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
         <v>40</v>
@@ -2389,10 +2416,10 @@
         <v>42</v>
       </c>
       <c r="U18" t="s">
+        <v>66</v>
+      </c>
+      <c r="V18" t="s">
         <v>188</v>
-      </c>
-      <c r="V18" t="s">
-        <v>189</v>
       </c>
       <c r="W18" t="s">
         <v>46</v>
@@ -2404,9 +2431,92 @@
         <v>48</v>
       </c>
       <c r="Z18" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>190</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="B19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>195</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" t="s">
+        <v>196</v>
+      </c>
+      <c r="O19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" t="s">
+        <v>197</v>
+      </c>
+      <c r="V19" t="s">
+        <v>198</v>
+      </c>
+      <c r="W19" t="s">
+        <v>46</v>
+      </c>
+      <c r="X19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA19" t="n">
         <v>276</v>
       </c>
     </row>

--- a/4.Analysis/Data/raw/day2/phase_004/select_day2_phase_004.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_004/select_day2_phase_004.xlsx
@@ -1,104 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="24750" windowHeight="10430"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
-  <si>
-    <t xml:space="preserve">USERID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time_day2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_join_similar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_SRET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_AlT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_ques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">join_interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">going_normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full_screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exit_fullScreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what_problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distrub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when_disturb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feedbackm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eligible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moneny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paid_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParticipantID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="142">
+  <si>
+    <t>USERID</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Subject.Name</t>
+  </si>
+  <si>
+    <t>Time_day2</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Source.Details</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>ever_join_similar</t>
+  </si>
+  <si>
+    <t>ever_SRET</t>
+  </si>
+  <si>
+    <t>ever_AlT</t>
+  </si>
+  <si>
+    <t>ever_ques</t>
+  </si>
+  <si>
+    <t>join_interval</t>
+  </si>
+  <si>
+    <t>going_normal</t>
+  </si>
+  <si>
+    <t>full_screen</t>
+  </si>
+  <si>
+    <t>exit_fullScreen</t>
+  </si>
+  <si>
+    <t>what_problem</t>
+  </si>
+  <si>
+    <t>distrub</t>
+  </si>
+  <si>
+    <t>when_disturb</t>
+  </si>
+  <si>
+    <t>feedbackm</t>
+  </si>
+  <si>
+    <t>aim</t>
+  </si>
+  <si>
+    <t>Eligible</t>
+  </si>
+  <si>
+    <t>Moneny</t>
+  </si>
+  <si>
+    <t>Paid_date</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ParticipantID</t>
   </si>
   <si>
     <t xml:space="preserve">	557541487416442880</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">	meimei_o</t>
@@ -107,43 +109,43 @@
     <t xml:space="preserve">	2023-11-16 11:00:47</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时33分11秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">直接访问</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.190.99.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">问题反馈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">否</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">类似的问卷调查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G.从无</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.一切正常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.我没有受到任何干扰</t>
+    <t>1小时33分11秒</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>直接访问</t>
+  </si>
+  <si>
+    <t>27.190.99.39</t>
+  </si>
+  <si>
+    <t>问题反馈</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>-888</t>
+  </si>
+  <si>
+    <t>类似的问卷调查</t>
+  </si>
+  <si>
+    <t>G.从无</t>
+  </si>
+  <si>
+    <t>A.一切正常</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>-999</t>
+  </si>
+  <si>
+    <t>A.我没有受到任何干扰</t>
   </si>
   <si>
     <t xml:space="preserve">第二题没有参加过，还必须要选择	</t>
@@ -152,22 +154,22 @@
     <t xml:space="preserve">研究人的思维能力	</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_1</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11.19</t>
+  </si>
+  <si>
+    <t>phase_004_subj_1</t>
   </si>
   <si>
     <t xml:space="preserve">	590502391271391232</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
+    <t>4</t>
   </si>
   <si>
     <t xml:space="preserve">	落花殇</t>
@@ -176,10 +178,10 @@
     <t xml:space="preserve">	2023-11-16 15:36:23</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时23分57秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.181.10.215</t>
+    <t>1小时23分57秒</t>
+  </si>
+  <si>
+    <t>116.181.10.215</t>
   </si>
   <si>
     <t xml:space="preserve">此实验时间过长，过程过于枯燥，希望改进一些。	</t>
@@ -188,13 +190,13 @@
     <t xml:space="preserve">了解人们对自己的了解程度。	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_004_subj_15</t>
+    <t>phase_004_subj_15</t>
   </si>
   <si>
     <t xml:space="preserve">	598907506583928832</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
+    <t>9</t>
   </si>
   <si>
     <t xml:space="preserve">	清尘</t>
@@ -203,178 +205,25 @@
     <t xml:space="preserve">	2023-11-16 19:26:30</t>
   </si>
   <si>
-    <t xml:space="preserve">54分9秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221.192.179.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.三个月内</t>
+    <t>54分9秒</t>
+  </si>
+  <si>
+    <t>221.192.179.75</t>
+  </si>
+  <si>
+    <t>D.三个月内</t>
   </si>
   <si>
     <t xml:space="preserve">无	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_004_subj_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	598932304420667392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	哈哈哈55223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-16 10:51:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59分30秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.134.127.165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.一个月内</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不知道	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	609032333906935808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	王得鱼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-18 21:40:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时19分10秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.232.18.249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试判断能力和记忆能力	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	622124635634270208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	wahh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-18 23:09:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时21分14秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.39.248.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">题目太多，眼睛疼	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">个人的图片记忆能力和快速反应能力	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	631127599740878848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	为谁流眼泪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-17 10:05:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56分19秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.133.195.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试性格	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	634785034254942208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	繁星点点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-16 21:38:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时29分23秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.133.43.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">没有问题	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">记忆，人性的研究	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	634785170985058304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	虎鲸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-17 12:46:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时25分37秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222.186.57.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">实验有点长	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">社交能力，个人品德	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_7</t>
+    <t>phase_004_subj_10</t>
   </si>
   <si>
     <t xml:space="preserve">	634786876431007744</t>
   </si>
   <si>
-    <t xml:space="preserve">14</t>
+    <t>14</t>
   </si>
   <si>
     <t xml:space="preserve">	卡布奇洛</t>
@@ -383,7 +232,10 @@
     <t xml:space="preserve">	2023-11-17 20:21:59</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时27分2秒</t>
+    <t>1小时27分2秒</t>
+  </si>
+  <si>
+    <t>36.133.43.95</t>
   </si>
   <si>
     <t xml:space="preserve">实验过程比较枯燥，晚上容易迷糊	</t>
@@ -392,13 +244,13 @@
     <t xml:space="preserve">人与人之间的关系	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_004_subj_2</t>
+    <t>phase_004_subj_2</t>
   </si>
   <si>
     <t xml:space="preserve">	634787525419859968</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">	苦gua</t>
@@ -407,10 +259,10 @@
     <t xml:space="preserve">	2023-11-16 16:36:03</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时18分4秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219.151.28.153</t>
+    <t>1小时18分4秒</t>
+  </si>
+  <si>
+    <t>219.151.28.153</t>
   </si>
   <si>
     <t xml:space="preserve">图片有点闪快了	</t>
@@ -419,13 +271,13 @@
     <t xml:space="preserve">自我人际关系	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_004_subj_16</t>
+    <t>phase_004_subj_16</t>
   </si>
   <si>
     <t xml:space="preserve">	637378161314627584</t>
   </si>
   <si>
-    <t xml:space="preserve">18</t>
+    <t>18</t>
   </si>
   <si>
     <t xml:space="preserve">	干燥小狗</t>
@@ -434,52 +286,25 @@
     <t xml:space="preserve">	2023-11-19 11:44:23</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时25分17秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223.246.254.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.半年内</t>
+    <t>1小时25分17秒</t>
+  </si>
+  <si>
+    <t>223.246.254.86</t>
+  </si>
+  <si>
+    <t>E.半年内</t>
   </si>
   <si>
     <t xml:space="preserve">不是很清楚	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_004_subj_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	718788150628974592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	若水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-17 23:49:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时16分31秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220.202.148.233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试时间太长，看久了对眼睛不好	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试记忆，反应能力	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_004_subj_17</t>
+    <t>phase_004_subj_11</t>
   </si>
   <si>
     <t xml:space="preserve">	729745091731918850</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
+    <t>6</t>
   </si>
   <si>
     <t xml:space="preserve">	累萝</t>
@@ -488,16 +313,16 @@
     <t xml:space="preserve">	2023-11-16 17:20:31</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时13分6秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.137.159.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">图形匹配（图形—人称词标签）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.半个月内</t>
+    <t>1小时13分6秒</t>
+  </si>
+  <si>
+    <t>36.137.159.85</t>
+  </si>
+  <si>
+    <t>图形匹配（图形—人称词标签）</t>
+  </si>
+  <si>
+    <t>B.半个月内</t>
   </si>
   <si>
     <t xml:space="preserve">没有	</t>
@@ -506,13 +331,13 @@
     <t xml:space="preserve">考验记忆力	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_004_subj_13</t>
+    <t>phase_004_subj_13</t>
   </si>
   <si>
     <t xml:space="preserve">	730010828753080322</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">	岸西</t>
@@ -521,22 +346,25 @@
     <t xml:space="preserve">	2023-11-16 12:01:09</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时14分17秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.221.59.68</t>
+    <t>1小时14分17秒</t>
+  </si>
+  <si>
+    <t>58.221.59.68</t>
+  </si>
+  <si>
+    <t>C.一个月内</t>
   </si>
   <si>
     <t xml:space="preserve">记忆力吧	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_004_subj_3</t>
+    <t>phase_004_subj_3</t>
   </si>
   <si>
     <t xml:space="preserve">	734083981330616322</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
+    <t>7</t>
   </si>
   <si>
     <t xml:space="preserve">	kingsz</t>
@@ -545,10 +373,10 @@
     <t xml:space="preserve">	2023-11-16 18:11:29</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时44分42秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.148.138.221</t>
+    <t>1小时44分42秒</t>
+  </si>
+  <si>
+    <t>36.148.138.221</t>
   </si>
   <si>
     <t xml:space="preserve">建议中途有几分钟强制休息时间，同时可以加入轻音乐，让大脑暂时放松下。	</t>
@@ -557,13 +385,13 @@
     <t xml:space="preserve">测试参与者大脑记忆与判断反应能力，同时根据描述情景通过第一心理反应回答问题。	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_004_subj_18</t>
+    <t>phase_004_subj_18</t>
   </si>
   <si>
     <t xml:space="preserve">	768419588089319425</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
+    <t>8</t>
   </si>
   <si>
     <t xml:space="preserve">	涵熙</t>
@@ -572,22 +400,22 @@
     <t xml:space="preserve">	2023-11-16 19:41:21</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时11分52秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.236.97.171</t>
+    <t>1小时11分52秒</t>
+  </si>
+  <si>
+    <t>124.236.97.171</t>
   </si>
   <si>
     <t xml:space="preserve">专注力	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_004_subj_8</t>
+    <t>phase_004_subj_8</t>
   </si>
   <si>
     <t xml:space="preserve">	774306025401749506</t>
   </si>
   <si>
-    <t xml:space="preserve">13</t>
+    <t>13</t>
   </si>
   <si>
     <t xml:space="preserve">	你工人爷爷来啦</t>
@@ -596,13 +424,13 @@
     <t xml:space="preserve">	2023-11-17 15:58:16</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时14分35秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.176.195.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.一周内</t>
+    <t>1小时14分35秒</t>
+  </si>
+  <si>
+    <t>39.176.195.125</t>
+  </si>
+  <si>
+    <t>A.一周内</t>
   </si>
   <si>
     <t xml:space="preserve">挺好的，要是图案区分更明显点就好了，当然如果就是实验本身的设置，也就没什么了。	</t>
@@ -611,32 +439,374 @@
     <t xml:space="preserve">可能和考察联想思维能力、身体反应速度等有关。	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_004_subj_5</t>
+    <t>phase_004_subj_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -644,17 +814,526 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -931,19 +1610,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="26" max="26" width="18.2727272727273" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1105,11 +1789,11 @@
       <c r="Z2" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>37</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1188,11 +1872,11 @@
       <c r="Z3" t="s">
         <v>58</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>498</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1271,11 +1955,11 @@
       <c r="Z4" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>433</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1304,7 +1988,7 @@
         <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
         <v>37</v>
@@ -1316,7 +2000,7 @@
         <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="O5" t="s">
         <v>40</v>
@@ -1337,7 +2021,7 @@
         <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s">
         <v>75</v>
@@ -1354,11 +2038,11 @@
       <c r="Z5" t="s">
         <v>76</v>
       </c>
-      <c r="AA5" t="n">
-        <v>416</v>
+      <c r="AA5">
+        <v>70</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1420,10 +2104,10 @@
         <v>42</v>
       </c>
       <c r="U6" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="V6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W6" t="s">
         <v>46</v>
@@ -1435,27 +2119,27 @@
         <v>48</v>
       </c>
       <c r="Z6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>670</v>
+        <v>85</v>
+      </c>
+      <c r="AA6">
+        <v>524</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -1464,13 +2148,13 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
         <v>37</v>
@@ -1482,7 +2166,7 @@
         <v>38</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
         <v>40</v>
@@ -1503,10 +2187,10 @@
         <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="V7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W7" t="s">
         <v>46</v>
@@ -1518,27 +2202,27 @@
         <v>48</v>
       </c>
       <c r="Z7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>287</v>
+        <v>94</v>
+      </c>
+      <c r="AA7">
+        <v>453</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -1547,25 +2231,25 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
         <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
       </c>
       <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="s">
         <v>37</v>
       </c>
-      <c r="M8" t="s">
-        <v>38</v>
-      </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
         <v>40</v>
@@ -1586,10 +2270,10 @@
         <v>42</v>
       </c>
       <c r="U8" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="V8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="W8" t="s">
         <v>46</v>
@@ -1601,27 +2285,27 @@
         <v>48</v>
       </c>
       <c r="Z8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>225</v>
+        <v>105</v>
+      </c>
+      <c r="AA8">
+        <v>462</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -1630,25 +2314,25 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
         <v>37</v>
       </c>
       <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="s">
         <v>37</v>
       </c>
-      <c r="M9" t="s">
-        <v>38</v>
-      </c>
       <c r="N9" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
@@ -1669,10 +2353,10 @@
         <v>42</v>
       </c>
       <c r="U9" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="V9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="W9" t="s">
         <v>46</v>
@@ -1684,27 +2368,27 @@
         <v>48</v>
       </c>
       <c r="Z9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>455</v>
+        <v>114</v>
+      </c>
+      <c r="AA9">
+        <v>117</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -1713,7 +2397,7 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
@@ -1752,10 +2436,10 @@
         <v>42</v>
       </c>
       <c r="U10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="V10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="W10" t="s">
         <v>46</v>
@@ -1767,27 +2451,27 @@
         <v>48</v>
       </c>
       <c r="Z10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>355</v>
+        <v>123</v>
+      </c>
+      <c r="AA10">
+        <v>667</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
@@ -1796,7 +2480,7 @@
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -1808,13 +2492,13 @@
         <v>37</v>
       </c>
       <c r="L11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" t="s">
         <v>37</v>
       </c>
-      <c r="M11" t="s">
-        <v>38</v>
-      </c>
       <c r="N11" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
@@ -1835,10 +2519,10 @@
         <v>42</v>
       </c>
       <c r="U11" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="V11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="W11" t="s">
         <v>46</v>
@@ -1850,27 +2534,27 @@
         <v>48</v>
       </c>
       <c r="Z11" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>70</v>
+        <v>131</v>
+      </c>
+      <c r="AA11">
+        <v>401</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -1879,25 +2563,25 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
         <v>37</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="M12" t="s">
         <v>38</v>
       </c>
       <c r="N12" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s">
         <v>40</v>
@@ -1918,10 +2602,10 @@
         <v>42</v>
       </c>
       <c r="U12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="V12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="W12" t="s">
         <v>46</v>
@@ -1933,595 +2617,15 @@
         <v>48</v>
       </c>
       <c r="Z12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
         <v>141</v>
       </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" t="s">
-        <v>142</v>
-      </c>
-      <c r="O13" t="s">
-        <v>40</v>
-      </c>
-      <c r="P13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>42</v>
-      </c>
-      <c r="R13" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" t="s">
-        <v>42</v>
-      </c>
-      <c r="U13" t="s">
-        <v>42</v>
-      </c>
-      <c r="V13" t="s">
-        <v>143</v>
-      </c>
-      <c r="W13" t="s">
-        <v>46</v>
-      </c>
-      <c r="X13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S14" t="s">
-        <v>43</v>
-      </c>
-      <c r="T14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U14" t="s">
-        <v>151</v>
-      </c>
-      <c r="V14" t="s">
-        <v>152</v>
-      </c>
-      <c r="W14" t="s">
-        <v>46</v>
-      </c>
-      <c r="X14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s">
-        <v>159</v>
-      </c>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" t="s">
-        <v>160</v>
-      </c>
-      <c r="M15" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15" t="s">
-        <v>161</v>
-      </c>
-      <c r="O15" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>42</v>
-      </c>
-      <c r="R15" t="s">
-        <v>42</v>
-      </c>
-      <c r="S15" t="s">
-        <v>43</v>
-      </c>
-      <c r="T15" t="s">
-        <v>42</v>
-      </c>
-      <c r="U15" t="s">
-        <v>162</v>
-      </c>
-      <c r="V15" t="s">
-        <v>163</v>
-      </c>
-      <c r="W15" t="s">
-        <v>46</v>
-      </c>
-      <c r="X15" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>170</v>
-      </c>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" t="s">
-        <v>160</v>
-      </c>
-      <c r="M16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R16" t="s">
-        <v>42</v>
-      </c>
-      <c r="S16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T16" t="s">
-        <v>42</v>
-      </c>
-      <c r="U16" t="s">
-        <v>66</v>
-      </c>
-      <c r="V16" t="s">
-        <v>171</v>
-      </c>
-      <c r="W16" t="s">
-        <v>46</v>
-      </c>
-      <c r="X16" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>42</v>
-      </c>
-      <c r="R17" t="s">
-        <v>42</v>
-      </c>
-      <c r="S17" t="s">
-        <v>43</v>
-      </c>
-      <c r="T17" t="s">
-        <v>42</v>
-      </c>
-      <c r="U17" t="s">
-        <v>179</v>
-      </c>
-      <c r="V17" t="s">
-        <v>180</v>
-      </c>
-      <c r="W17" t="s">
-        <v>46</v>
-      </c>
-      <c r="X17" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
-        <v>187</v>
-      </c>
-      <c r="I18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" t="s">
-        <v>160</v>
-      </c>
-      <c r="M18" t="s">
-        <v>37</v>
-      </c>
-      <c r="N18" t="s">
-        <v>161</v>
-      </c>
-      <c r="O18" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>42</v>
-      </c>
-      <c r="R18" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" t="s">
-        <v>43</v>
-      </c>
-      <c r="T18" t="s">
-        <v>42</v>
-      </c>
-      <c r="U18" t="s">
-        <v>66</v>
-      </c>
-      <c r="V18" t="s">
-        <v>188</v>
-      </c>
-      <c r="W18" t="s">
-        <v>46</v>
-      </c>
-      <c r="X18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>195</v>
-      </c>
-      <c r="I19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" t="s">
-        <v>160</v>
-      </c>
-      <c r="M19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" t="s">
-        <v>196</v>
-      </c>
-      <c r="O19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>42</v>
-      </c>
-      <c r="R19" t="s">
-        <v>42</v>
-      </c>
-      <c r="S19" t="s">
-        <v>43</v>
-      </c>
-      <c r="T19" t="s">
-        <v>42</v>
-      </c>
-      <c r="U19" t="s">
-        <v>197</v>
-      </c>
-      <c r="V19" t="s">
-        <v>198</v>
-      </c>
-      <c r="W19" t="s">
-        <v>46</v>
-      </c>
-      <c r="X19" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA19" t="n">
+      <c r="AA12">
         <v>276</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/4.Analysis/Data/raw/day2/phase_004/select_day2_phase_004.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_004/select_day2_phase_004.xlsx
@@ -1,106 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="142">
-  <si>
-    <t>USERID</t>
-  </si>
-  <si>
-    <t>Num</t>
-  </si>
-  <si>
-    <t>Subject.Name</t>
-  </si>
-  <si>
-    <t>Time_day2</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Source.Details</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
-    <t>ever_join_similar</t>
-  </si>
-  <si>
-    <t>ever_SRET</t>
-  </si>
-  <si>
-    <t>ever_AlT</t>
-  </si>
-  <si>
-    <t>ever_ques</t>
-  </si>
-  <si>
-    <t>join_interval</t>
-  </si>
-  <si>
-    <t>going_normal</t>
-  </si>
-  <si>
-    <t>full_screen</t>
-  </si>
-  <si>
-    <t>exit_fullScreen</t>
-  </si>
-  <si>
-    <t>what_problem</t>
-  </si>
-  <si>
-    <t>distrub</t>
-  </si>
-  <si>
-    <t>when_disturb</t>
-  </si>
-  <si>
-    <t>feedbackm</t>
-  </si>
-  <si>
-    <t>aim</t>
-  </si>
-  <si>
-    <t>Eligible</t>
-  </si>
-  <si>
-    <t>Moneny</t>
-  </si>
-  <si>
-    <t>Paid_date</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ParticipantID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+  <si>
+    <t xml:space="preserve">USERID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject.Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_day2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source.Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_join_similar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_SRET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_AlT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_ques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">join_interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">going_normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit_fullScreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what_problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when_disturb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feedbackm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moneny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParticipantID</t>
   </si>
   <si>
     <t xml:space="preserve">	557541487416442880</t>
   </si>
   <si>
-    <t>1</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">	meimei_o</t>
@@ -109,43 +107,43 @@
     <t xml:space="preserve">	2023-11-16 11:00:47</t>
   </si>
   <si>
-    <t>1小时33分11秒</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>直接访问</t>
-  </si>
-  <si>
-    <t>27.190.99.39</t>
-  </si>
-  <si>
-    <t>问题反馈</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>-888</t>
-  </si>
-  <si>
-    <t>类似的问卷调查</t>
-  </si>
-  <si>
-    <t>G.从无</t>
-  </si>
-  <si>
-    <t>A.一切正常</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>-999</t>
-  </si>
-  <si>
-    <t>A.我没有受到任何干扰</t>
+    <t xml:space="preserve">1小时33分11秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">直接访问</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.190.99.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">问题反馈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">类似的问卷调查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.从无</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.一切正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.我没有受到任何干扰</t>
   </si>
   <si>
     <t xml:space="preserve">第二题没有参加过，还必须要选择	</t>
@@ -154,22 +152,22 @@
     <t xml:space="preserve">研究人的思维能力	</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11.19</t>
-  </si>
-  <si>
-    <t>phase_004_subj_1</t>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_004_subj_1</t>
   </si>
   <si>
     <t xml:space="preserve">	590502391271391232</t>
   </si>
   <si>
-    <t>4</t>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">	落花殇</t>
@@ -178,10 +176,10 @@
     <t xml:space="preserve">	2023-11-16 15:36:23</t>
   </si>
   <si>
-    <t>1小时23分57秒</t>
-  </si>
-  <si>
-    <t>116.181.10.215</t>
+    <t xml:space="preserve">1小时23分57秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.181.10.215</t>
   </si>
   <si>
     <t xml:space="preserve">此实验时间过长，过程过于枯燥，希望改进一些。	</t>
@@ -190,13 +188,13 @@
     <t xml:space="preserve">了解人们对自己的了解程度。	</t>
   </si>
   <si>
-    <t>phase_004_subj_15</t>
+    <t xml:space="preserve">phase_004_subj_15</t>
   </si>
   <si>
     <t xml:space="preserve">	598907506583928832</t>
   </si>
   <si>
-    <t>9</t>
+    <t xml:space="preserve">9</t>
   </si>
   <si>
     <t xml:space="preserve">	清尘</t>
@@ -205,25 +203,25 @@
     <t xml:space="preserve">	2023-11-16 19:26:30</t>
   </si>
   <si>
-    <t>54分9秒</t>
-  </si>
-  <si>
-    <t>221.192.179.75</t>
-  </si>
-  <si>
-    <t>D.三个月内</t>
+    <t xml:space="preserve">54分9秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221.192.179.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.三个月内</t>
   </si>
   <si>
     <t xml:space="preserve">无	</t>
   </si>
   <si>
-    <t>phase_004_subj_10</t>
+    <t xml:space="preserve">phase_004_subj_10</t>
   </si>
   <si>
     <t xml:space="preserve">	634786876431007744</t>
   </si>
   <si>
-    <t>14</t>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">	卡布奇洛</t>
@@ -232,10 +230,10 @@
     <t xml:space="preserve">	2023-11-17 20:21:59</t>
   </si>
   <si>
-    <t>1小时27分2秒</t>
-  </si>
-  <si>
-    <t>36.133.43.95</t>
+    <t xml:space="preserve">1小时27分2秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.133.43.95</t>
   </si>
   <si>
     <t xml:space="preserve">实验过程比较枯燥，晚上容易迷糊	</t>
@@ -244,13 +242,13 @@
     <t xml:space="preserve">人与人之间的关系	</t>
   </si>
   <si>
-    <t>phase_004_subj_2</t>
+    <t xml:space="preserve">phase_004_subj_2</t>
   </si>
   <si>
     <t xml:space="preserve">	634787525419859968</t>
   </si>
   <si>
-    <t>5</t>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">	苦gua</t>
@@ -259,10 +257,10 @@
     <t xml:space="preserve">	2023-11-16 16:36:03</t>
   </si>
   <si>
-    <t>1小时18分4秒</t>
-  </si>
-  <si>
-    <t>219.151.28.153</t>
+    <t xml:space="preserve">1小时18分4秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219.151.28.153</t>
   </si>
   <si>
     <t xml:space="preserve">图片有点闪快了	</t>
@@ -271,13 +269,13 @@
     <t xml:space="preserve">自我人际关系	</t>
   </si>
   <si>
-    <t>phase_004_subj_16</t>
+    <t xml:space="preserve">phase_004_subj_16</t>
   </si>
   <si>
     <t xml:space="preserve">	637378161314627584</t>
   </si>
   <si>
-    <t>18</t>
+    <t xml:space="preserve">18</t>
   </si>
   <si>
     <t xml:space="preserve">	干燥小狗</t>
@@ -286,25 +284,25 @@
     <t xml:space="preserve">	2023-11-19 11:44:23</t>
   </si>
   <si>
-    <t>1小时25分17秒</t>
-  </si>
-  <si>
-    <t>223.246.254.86</t>
-  </si>
-  <si>
-    <t>E.半年内</t>
+    <t xml:space="preserve">1小时25分17秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223.246.254.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.半年内</t>
   </si>
   <si>
     <t xml:space="preserve">不是很清楚	</t>
   </si>
   <si>
-    <t>phase_004_subj_11</t>
+    <t xml:space="preserve">phase_004_subj_11</t>
   </si>
   <si>
     <t xml:space="preserve">	729745091731918850</t>
   </si>
   <si>
-    <t>6</t>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">	累萝</t>
@@ -313,16 +311,16 @@
     <t xml:space="preserve">	2023-11-16 17:20:31</t>
   </si>
   <si>
-    <t>1小时13分6秒</t>
-  </si>
-  <si>
-    <t>36.137.159.85</t>
-  </si>
-  <si>
-    <t>图形匹配（图形—人称词标签）</t>
-  </si>
-  <si>
-    <t>B.半个月内</t>
+    <t xml:space="preserve">1小时13分6秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.137.159.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图形匹配（图形—人称词标签）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.半个月内</t>
   </si>
   <si>
     <t xml:space="preserve">没有	</t>
@@ -331,13 +329,13 @@
     <t xml:space="preserve">考验记忆力	</t>
   </si>
   <si>
-    <t>phase_004_subj_13</t>
+    <t xml:space="preserve">phase_004_subj_13</t>
   </si>
   <si>
     <t xml:space="preserve">	730010828753080322</t>
   </si>
   <si>
-    <t>3</t>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">	岸西</t>
@@ -346,25 +344,25 @@
     <t xml:space="preserve">	2023-11-16 12:01:09</t>
   </si>
   <si>
-    <t>1小时14分17秒</t>
-  </si>
-  <si>
-    <t>58.221.59.68</t>
-  </si>
-  <si>
-    <t>C.一个月内</t>
+    <t xml:space="preserve">1小时14分17秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.221.59.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.一个月内</t>
   </si>
   <si>
     <t xml:space="preserve">记忆力吧	</t>
   </si>
   <si>
-    <t>phase_004_subj_3</t>
+    <t xml:space="preserve">phase_004_subj_3</t>
   </si>
   <si>
     <t xml:space="preserve">	734083981330616322</t>
   </si>
   <si>
-    <t>7</t>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">	kingsz</t>
@@ -373,10 +371,10 @@
     <t xml:space="preserve">	2023-11-16 18:11:29</t>
   </si>
   <si>
-    <t>1小时44分42秒</t>
-  </si>
-  <si>
-    <t>36.148.138.221</t>
+    <t xml:space="preserve">1小时44分42秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.148.138.221</t>
   </si>
   <si>
     <t xml:space="preserve">建议中途有几分钟强制休息时间，同时可以加入轻音乐，让大脑暂时放松下。	</t>
@@ -385,13 +383,13 @@
     <t xml:space="preserve">测试参与者大脑记忆与判断反应能力，同时根据描述情景通过第一心理反应回答问题。	</t>
   </si>
   <si>
-    <t>phase_004_subj_18</t>
+    <t xml:space="preserve">phase_004_subj_18</t>
   </si>
   <si>
     <t xml:space="preserve">	768419588089319425</t>
   </si>
   <si>
-    <t>8</t>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">	涵熙</t>
@@ -400,22 +398,22 @@
     <t xml:space="preserve">	2023-11-16 19:41:21</t>
   </si>
   <si>
-    <t>1小时11分52秒</t>
-  </si>
-  <si>
-    <t>124.236.97.171</t>
+    <t xml:space="preserve">1小时11分52秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.236.97.171</t>
   </si>
   <si>
     <t xml:space="preserve">专注力	</t>
   </si>
   <si>
-    <t>phase_004_subj_8</t>
+    <t xml:space="preserve">phase_004_subj_8</t>
   </si>
   <si>
     <t xml:space="preserve">	774306025401749506</t>
   </si>
   <si>
-    <t>13</t>
+    <t xml:space="preserve">13</t>
   </si>
   <si>
     <t xml:space="preserve">	你工人爷爷来啦</t>
@@ -424,13 +422,13 @@
     <t xml:space="preserve">	2023-11-17 15:58:16</t>
   </si>
   <si>
-    <t>1小时14分35秒</t>
-  </si>
-  <si>
-    <t>39.176.195.125</t>
-  </si>
-  <si>
-    <t>A.一周内</t>
+    <t xml:space="preserve">1小时14分35秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.176.195.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.一周内</t>
   </si>
   <si>
     <t xml:space="preserve">挺好的，要是图案区分更明显点就好了，当然如果就是实验本身的设置，也就没什么了。	</t>
@@ -439,374 +437,32 @@
     <t xml:space="preserve">可能和考察联想思维能力、身体反应速度等有关。	</t>
   </si>
   <si>
-    <t>phase_004_subj_5</t>
+    <t xml:space="preserve">phase_004_subj_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -814,526 +470,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -1610,24 +757,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AA12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z12"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="26" max="26" width="18.2727272727273" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1710,7 +852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1789,11 +931,11 @@
       <c r="Z2" t="s">
         <v>49</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1872,11 +1014,11 @@
       <c r="Z3" t="s">
         <v>58</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>498</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1955,11 +1097,11 @@
       <c r="Z4" t="s">
         <v>67</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -2038,11 +1180,11 @@
       <c r="Z5" t="s">
         <v>76</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -2121,11 +1263,11 @@
       <c r="Z6" t="s">
         <v>85</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>524</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -2204,11 +1346,11 @@
       <c r="Z7" t="s">
         <v>94</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -2287,11 +1429,11 @@
       <c r="Z8" t="s">
         <v>105</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -2370,11 +1512,11 @@
       <c r="Z9" t="s">
         <v>114</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="n">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2453,11 +1595,11 @@
       <c r="Z10" t="s">
         <v>123</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>667</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -2536,11 +1678,11 @@
       <c r="Z11" t="s">
         <v>131</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="n">
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12">
       <c r="A12" t="s">
         <v>132</v>
       </c>
@@ -2619,13 +1761,12 @@
       <c r="Z12" t="s">
         <v>141</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" t="n">
         <v>276</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>